--- a/Flagstone paper/Plots/PerManova Table.xlsx
+++ b/Flagstone paper/Plots/PerManova Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Depth</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>Total R2</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -126,6 +129,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I39"/>
+  <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:I39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +424,7 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -435,8 +441,11 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -458,8 +467,12 @@
       <c r="I3">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f>SUM(G3:G8)</f>
+        <v>0.58607999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -479,7 +492,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -499,7 +512,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -519,7 +532,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -539,7 +552,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -559,7 +572,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -575,7 +588,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -583,7 +596,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -591,7 +604,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
@@ -608,8 +621,11 @@
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -631,8 +647,12 @@
       <c r="I13">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <f>SUM(G13:G18)</f>
+        <v>0.57557000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>1</v>
       </c>
@@ -652,7 +672,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>2</v>
       </c>
@@ -672,7 +692,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>3</v>
       </c>
@@ -692,7 +712,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -712,7 +732,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -732,7 +752,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
@@ -748,17 +768,17 @@
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
         <v>11</v>
@@ -775,8 +795,11 @@
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -798,8 +821,12 @@
       <c r="I23">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <f>SUM(G23:G28)</f>
+        <v>0.32487000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>1</v>
       </c>
@@ -819,7 +846,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>2</v>
       </c>
@@ -839,7 +866,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>3</v>
       </c>
@@ -859,7 +886,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -879,7 +906,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>5</v>
       </c>
@@ -899,7 +926,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
@@ -915,17 +942,17 @@
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
         <v>11</v>
@@ -942,8 +969,11 @@
       <c r="I32" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -965,8 +995,12 @@
       <c r="I33">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <f>SUM(G33:G38)</f>
+        <v>0.43314000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>1</v>
       </c>
@@ -986,7 +1020,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1040,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1060,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1080,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1100,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
